--- a/biology/Médecine/Corps_du_fémur/Corps_du_fémur.xlsx
+++ b/biology/Médecine/Corps_du_fémur/Corps_du_fémur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corps_du_f%C3%A9mur</t>
+          <t>Corps_du_fémur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps du fémur est la partie du fémur comprise en dessous du petit trochanter et au-dessus des condyles latéral et médial du fémur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corps_du_f%C3%A9mur</t>
+          <t>Corps_du_fémur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps du fémur a une forme prismatique triangulaire presque cylindrique
 Il est un peu plus large en haut qu'au centre. Il est plus large et un peu aplati d'avant en arrière en bas.
@@ -522,25 +536,200 @@
 une face médiale.
 Les faces latérale et médiale sont séparées de la face antérieure par deux bords latéraux interne et externe.
 Les deux faces postérieures latérale et médiale sont séparées par le bord postérieur formant la ligne âpre.
-Face antérieure
-La face antérieure est lisse, convexe, plus large en haut et en bas qu'au centre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Corps_du_fémur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corps_du_f%C3%A9mur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face antérieure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face antérieure est lisse, convexe, plus large en haut et en bas qu'au centre.
 Les trois quarts supérieurs de cette surface donne insertion au muscle vaste intermédiaire.
 Le quart inférieur de la face antérieure donne deux points d'insertion au muscle articulaire du genou.
-Face latérale
-La face latérale comprend la surface entre le bord latéral et le bord postérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corps_du_fémur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corps_du_f%C3%A9mur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face latérale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face latérale comprend la surface entre le bord latéral et le bord postérieur.
 Elle est large et concave dans sa partie moyenne, convexe et effilée à ses extrémités.
 Elle est continu en haut avec la surface latérale du grand trochanter et en bas avec la face latérale du condyle latéral du fémur.
 Les trois quarts supérieurs donne insertion au muscle vaste intermédiaire en continuité avec son insertion sur la face antérieure.
-Face médiale
-La face médiale comprend la surface située entre le bord médial et le bord postérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corps_du_fémur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corps_du_f%C3%A9mur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Face médiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La face médiale comprend la surface située entre le bord médial et le bord postérieur.
 Elle est effilée à ses extrémités et libre de toute insertion. Elle est recouverte par le muscle vaste médial.
 Elle est continue en haut avec le bord inférieur du col fémoral, en bas avec la face médiale du condyle médial du fémur.
-Bord latéral et médial
-Les deux bords latéral et médial du fémur sont peu marqués.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corps_du_fémur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corps_du_f%C3%A9mur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bord latéral et médial</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux bords latéral et médial du fémur sont peu marqués.
 Le bord latéral s'étend de l'angle antéro-inférieur du grand trochanter à l'extrémité antérieure du condyle latéral du fémur.
 Le bord médial s'étend de la ligne inter-trochantérique jusqu'à l'extrémité antérieure du condyle médial du fémur.
-Bord postérieur
-Le bord postérieur est saillant, épais et rugueux. Il forme une crête proéminente : la ligne âpre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corps_du_fémur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corps_du_f%C3%A9mur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bord postérieur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord postérieur est saillant, épais et rugueux. Il forme une crête proéminente : la ligne âpre.
 La crête est simple dans sa partie moyenne. Elle présente une une lèvre latérale sur laquelle s'insère le muscle vaste latéral., et une lèvre médiale sur laquelle s'insère le muscle vaste médial.
 Dans sa partie supérieure, elle se divise en trois branches :
 une branche externe formant la crête du grand fessier donnant insertion au muscle grand glutéal et pouvant présenter un tubercule formant le troisième trochanter,
